--- a/AAII_Financials/Yearly/PXDT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PXDT_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E8" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E10" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="E12" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="E17" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="E18" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="E21" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="E23" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="E26" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="E27" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="E33" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="E35" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="E41" s="3">
-        <v>21100</v>
+        <v>20400</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="E46" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="E48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1781,7 +1781,7 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26000</v>
+        <v>25200</v>
       </c>
       <c r="E54" s="3">
-        <v>31200</v>
+        <v>30200</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1888,7 +1888,7 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1915,7 +1915,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1942,7 +1942,7 @@
         <v>1300</v>
       </c>
       <c r="E59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1969,7 +1969,7 @@
         <v>2100</v>
       </c>
       <c r="E60" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="E61" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="E62" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="E66" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-16600</v>
+        <v>-16000</v>
       </c>
       <c r="E72" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="E76" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="E81" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2513,7 +2513,7 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="E89" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2796,7 +2796,7 @@
         <v>-500</v>
       </c>
       <c r="E94" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2944,7 +2944,7 @@
         <v>-800</v>
       </c>
       <c r="E100" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8700</v>
+        <v>-8400</v>
       </c>
       <c r="E102" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
